--- a/Racecard_20250413_6.xlsx
+++ b/Racecard_20250413_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="385">
   <si>
     <t>日期</t>
   </si>
@@ -113,12 +113,1099 @@
   </si>
   <si>
     <t>進口類別</t>
+  </si>
+  <si>
+    <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
+  </si>
+  <si>
+    <t>上次路程</t>
+  </si>
+  <si>
+    <t>上次名次</t>
+  </si>
+  <si>
+    <t>上次騎師</t>
+  </si>
+  <si>
+    <t>上次賠率</t>
+  </si>
+  <si>
+    <t>上次負磅</t>
+  </si>
+  <si>
+    <t>上次負磅 +/-</t>
+  </si>
+  <si>
+    <t>上次檔位</t>
+  </si>
+  <si>
+    <t>上次檔位 +/-</t>
+  </si>
+  <si>
+    <t>上次賽事時間1</t>
+  </si>
+  <si>
+    <t>上次賽事時間2</t>
+  </si>
+  <si>
+    <t>上次賽事時間3</t>
+  </si>
+  <si>
+    <t>上次賽事時間4</t>
+  </si>
+  <si>
+    <t>上次賽事時間5</t>
+  </si>
+  <si>
+    <t>上次賽事時間6</t>
+  </si>
+  <si>
+    <t>上次完成時間</t>
+  </si>
+  <si>
+    <t>上次第 1 段</t>
+  </si>
+  <si>
+    <t>上次第 2 段</t>
+  </si>
+  <si>
+    <t>上次第 3 段</t>
+  </si>
+  <si>
+    <t>上次第 4 段</t>
+  </si>
+  <si>
+    <t>上次第 5 段</t>
+  </si>
+  <si>
+    <t>上次第 6 段</t>
+  </si>
+  <si>
+    <t>上次最後 800</t>
+  </si>
+  <si>
+    <t>上次調整基數</t>
+  </si>
+  <si>
+    <t>上次調整後最後 800</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間</t>
+  </si>
+  <si>
+    <t>前次總場次</t>
+  </si>
+  <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
+    <t>前次名次</t>
+  </si>
+  <si>
+    <t>前次騎師</t>
+  </si>
+  <si>
+    <t>前次賠率</t>
+  </si>
+  <si>
+    <t>前次負磅</t>
+  </si>
+  <si>
+    <t>前次負磅 +/-</t>
+  </si>
+  <si>
+    <t>前次檔位</t>
+  </si>
+  <si>
+    <t>前次檔位 +/-</t>
+  </si>
+  <si>
+    <t>前次賽事時間1</t>
+  </si>
+  <si>
+    <t>前次賽事時間2</t>
+  </si>
+  <si>
+    <t>前次賽事時間3</t>
+  </si>
+  <si>
+    <t>前次賽事時間4</t>
+  </si>
+  <si>
+    <t>前次賽事時間5</t>
+  </si>
+  <si>
+    <t>前次賽事時間6</t>
+  </si>
+  <si>
+    <t>前次完成時間</t>
+  </si>
+  <si>
+    <t>前次第 1 段</t>
+  </si>
+  <si>
+    <t>前次第 2 段</t>
+  </si>
+  <si>
+    <t>前次第 3 段</t>
+  </si>
+  <si>
+    <t>前次第 4 段</t>
+  </si>
+  <si>
+    <t>前次第 5 段</t>
+  </si>
+  <si>
+    <t>前次第 6 段</t>
+  </si>
+  <si>
+    <t>前次最後 800</t>
+  </si>
+  <si>
+    <t>前次調整基數</t>
+  </si>
+  <si>
+    <t>前次調整後最後 800</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間</t>
+  </si>
+  <si>
+    <t>馬名2</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>上次賽事</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>前次賽事</t>
+  </si>
+  <si>
+    <t>2次調整後平均時間</t>
+  </si>
+  <si>
+    <t>上次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "C" 賽道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第四班</t>
+  </si>
+  <si>
+    <t>10/5/10/6/6</t>
+  </si>
+  <si>
+    <t>11/12/13</t>
+  </si>
+  <si>
+    <t>8/8/2/8/1/6</t>
+  </si>
+  <si>
+    <t>10/9/10/10/10/7</t>
+  </si>
+  <si>
+    <t>7/8/4/6/5/7</t>
+  </si>
+  <si>
+    <t>12/11/12/12/12</t>
+  </si>
+  <si>
+    <t>4/12/6/7/10/5</t>
+  </si>
+  <si>
+    <t>3/4/6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>11/2/7/6/10</t>
+  </si>
+  <si>
+    <t>2/9/7/5</t>
+  </si>
+  <si>
+    <t>7/9/12/11/13</t>
+  </si>
+  <si>
+    <t>11/7/11/5/6/6</t>
+  </si>
+  <si>
+    <t>12/14/1/6/3/7</t>
+  </si>
+  <si>
+    <t>飛越星空</t>
+  </si>
+  <si>
+    <t>大師爺</t>
+  </si>
+  <si>
+    <t>綫路達飛</t>
+  </si>
+  <si>
+    <t>獨步天下</t>
+  </si>
+  <si>
+    <t>心雄雄</t>
+  </si>
+  <si>
+    <t>劍無情</t>
+  </si>
+  <si>
+    <t>風繼續吹</t>
+  </si>
+  <si>
+    <t>笑喜喜</t>
+  </si>
+  <si>
+    <t>部族高手</t>
+  </si>
+  <si>
+    <t>勁沙塵</t>
+  </si>
+  <si>
+    <t>小皇爺</t>
+  </si>
+  <si>
+    <t>吉祥寶</t>
+  </si>
+  <si>
+    <t>綫路神驊</t>
+  </si>
+  <si>
+    <t>好運寶馬</t>
+  </si>
+  <si>
+    <t>J328</t>
+  </si>
+  <si>
+    <t>K034</t>
+  </si>
+  <si>
+    <t>J501</t>
+  </si>
+  <si>
+    <t>H319</t>
+  </si>
+  <si>
+    <t>J467</t>
+  </si>
+  <si>
+    <t>J535</t>
+  </si>
+  <si>
+    <t>E471</t>
+  </si>
+  <si>
+    <t>K136</t>
+  </si>
+  <si>
+    <t>K307</t>
+  </si>
+  <si>
+    <t>J514</t>
+  </si>
+  <si>
+    <t>J546</t>
+  </si>
+  <si>
+    <t>J376</t>
+  </si>
+  <si>
+    <t>G078</t>
+  </si>
+  <si>
+    <t>E157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黃智弘 (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+梁家俊
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘明輝
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+希威森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+楊明綸
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鍾易禮 (-3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+田泰安
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘頓
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+奧爾民
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+霍宏聲
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+周俊樂 (-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+艾兆禮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黃寶妮 (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+賀銘年
+</t>
+  </si>
+  <si>
+    <t>伍鵬志</t>
+  </si>
+  <si>
+    <t>丁冠豪</t>
+  </si>
+  <si>
+    <t>羅富全</t>
+  </si>
+  <si>
+    <t>呂健威</t>
+  </si>
+  <si>
+    <t>大衛希斯</t>
+  </si>
+  <si>
+    <t>告東尼</t>
+  </si>
+  <si>
+    <t>鄭俊偉</t>
+  </si>
+  <si>
+    <t>蘇偉賢</t>
+  </si>
+  <si>
+    <t>黎昭昇</t>
+  </si>
+  <si>
+    <t>廖康銘</t>
+  </si>
+  <si>
+    <t>容天鵬</t>
+  </si>
+  <si>
+    <t>姚本輝</t>
+  </si>
+  <si>
+    <t>文家良</t>
+  </si>
+  <si>
+    <t>巫偉傑</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.21.89</t>
+  </si>
+  <si>
+    <t>1.22.98</t>
+  </si>
+  <si>
+    <t>1.21.92</t>
+  </si>
+  <si>
+    <t>1.22.88</t>
+  </si>
+  <si>
+    <t>1.21.59</t>
+  </si>
+  <si>
+    <t>1.22.05</t>
+  </si>
+  <si>
+    <t>1.21.45</t>
+  </si>
+  <si>
+    <t>1.21.88</t>
+  </si>
+  <si>
+    <t>1.21.35</t>
+  </si>
+  <si>
+    <t>1.21.68</t>
+  </si>
+  <si>
+    <t>閹</t>
+  </si>
+  <si>
+    <t>65,100</t>
+  </si>
+  <si>
+    <t>924,300</t>
+  </si>
+  <si>
+    <t>172,500</t>
+  </si>
+  <si>
+    <t>686,150</t>
+  </si>
+  <si>
+    <t>228,150</t>
+  </si>
+  <si>
+    <t>269,100</t>
+  </si>
+  <si>
+    <t>286,650</t>
+  </si>
+  <si>
+    <t>128,700</t>
+  </si>
+  <si>
+    <t>631,525</t>
+  </si>
+  <si>
+    <t>+ 1</t>
+  </si>
+  <si>
+    <t>* 2</t>
+  </si>
+  <si>
+    <t>* 1</t>
+  </si>
+  <si>
+    <t>+ 2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>XB/TT</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B-/H-/V1/TT</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B/TT</t>
+  </si>
+  <si>
+    <t>H-/B</t>
+  </si>
+  <si>
+    <t>魏詩然</t>
+  </si>
+  <si>
+    <t>香港仔賽馬團體</t>
+  </si>
+  <si>
+    <t>張家成與張祖兒</t>
+  </si>
+  <si>
+    <t>趙柏基先生及夫人</t>
+  </si>
+  <si>
+    <t>李烈龍</t>
+  </si>
+  <si>
+    <t>AA84 團體</t>
+  </si>
+  <si>
+    <t>那些年團體</t>
+  </si>
+  <si>
+    <t>黃敏儀</t>
+  </si>
+  <si>
+    <t>席家宜</t>
+  </si>
+  <si>
+    <t>吳宇超與杜傲豐</t>
+  </si>
+  <si>
+    <t>型團體</t>
+  </si>
+  <si>
+    <t>林怡仲與賴愛慧</t>
+  </si>
+  <si>
+    <t>張根棠</t>
+  </si>
+  <si>
+    <t>劉桂湞</t>
+  </si>
+  <si>
+    <t>Bungle Inthejungle</t>
+  </si>
+  <si>
+    <t>Swiss Ace</t>
+  </si>
+  <si>
+    <t>El Roca</t>
+  </si>
+  <si>
+    <t>Astern</t>
+  </si>
+  <si>
+    <t>Per Incanto</t>
+  </si>
+  <si>
+    <t>Needs Further</t>
+  </si>
+  <si>
+    <t>Shooting To Win</t>
+  </si>
+  <si>
+    <t>Merchant Navy</t>
+  </si>
+  <si>
+    <t>Tivaci</t>
+  </si>
+  <si>
+    <t>Akeed Mofeed</t>
+  </si>
+  <si>
+    <t>Mendelssohn</t>
+  </si>
+  <si>
+    <t>Deep Field</t>
+  </si>
+  <si>
+    <t>Super One</t>
+  </si>
+  <si>
+    <t>Ms Gree</t>
+  </si>
+  <si>
+    <t>Remedy</t>
+  </si>
+  <si>
+    <t>Daly River</t>
+  </si>
+  <si>
+    <t>Forbetterforworse</t>
+  </si>
+  <si>
+    <t>Eva Godiva</t>
+  </si>
+  <si>
+    <t>Tycoon Sali</t>
+  </si>
+  <si>
+    <t>We Can Dance</t>
+  </si>
+  <si>
+    <t>Dreamtesta</t>
+  </si>
+  <si>
+    <t>Without Flaw</t>
+  </si>
+  <si>
+    <t>New Sensation</t>
+  </si>
+  <si>
+    <t>Joka</t>
+  </si>
+  <si>
+    <t>Purr Itty Kitty</t>
+  </si>
+  <si>
+    <t>Summalucky</t>
+  </si>
+  <si>
+    <t>Keep The Filly</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>2024/10/13</t>
+  </si>
+  <si>
+    <t>2025/03/09</t>
+  </si>
+  <si>
+    <t>2025/03/15</t>
+  </si>
+  <si>
+    <t>2025/01/19</t>
+  </si>
+  <si>
+    <t>2025/03/02</t>
+  </si>
+  <si>
+    <t>2025/02/09</t>
+  </si>
+  <si>
+    <t>2025/03/23</t>
+  </si>
+  <si>
+    <t>2025/02/23</t>
+  </si>
+  <si>
+    <t>2025/01/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第五班 </t>
+  </si>
+  <si>
+    <t>潘明輝</t>
+  </si>
+  <si>
+    <t>金誠剛</t>
+  </si>
+  <si>
+    <t>梁家俊</t>
+  </si>
+  <si>
+    <t>何澤堯</t>
+  </si>
+  <si>
+    <t>楊明綸</t>
+  </si>
+  <si>
+    <t>艾道拿</t>
+  </si>
+  <si>
+    <t>田泰安</t>
+  </si>
+  <si>
+    <t>霍宏聲</t>
+  </si>
+  <si>
+    <t>周俊樂</t>
+  </si>
+  <si>
+    <t>艾兆禮</t>
+  </si>
+  <si>
+    <t>班德禮</t>
+  </si>
+  <si>
+    <t>58.94</t>
+  </si>
+  <si>
+    <t>58.06</t>
+  </si>
+  <si>
+    <t>1:08.92</t>
+  </si>
+  <si>
+    <t>57.74</t>
+  </si>
+  <si>
+    <t>1:09.08</t>
+  </si>
+  <si>
+    <t>59.67</t>
+  </si>
+  <si>
+    <t>57.91</t>
+  </si>
+  <si>
+    <t>1:09.58</t>
+  </si>
+  <si>
+    <t>58.40</t>
+  </si>
+  <si>
+    <t>58.20</t>
+  </si>
+  <si>
+    <t>58.44</t>
+  </si>
+  <si>
+    <t>1:21.71</t>
+  </si>
+  <si>
+    <t>1:21.53</t>
+  </si>
+  <si>
+    <t>1:21.69</t>
+  </si>
+  <si>
+    <t>1:22.41</t>
+  </si>
+  <si>
+    <t>1:21.43</t>
+  </si>
+  <si>
+    <t>1:21.99</t>
+  </si>
+  <si>
+    <t>1:21.27</t>
+  </si>
+  <si>
+    <t>1:22.78</t>
+  </si>
+  <si>
+    <t>1:21.89</t>
+  </si>
+  <si>
+    <t>1:22.98</t>
+  </si>
+  <si>
+    <t>1:09.52</t>
+  </si>
+  <si>
+    <t>1:22.71</t>
+  </si>
+  <si>
+    <t>1:09.53</t>
+  </si>
+  <si>
+    <t>1:23.41</t>
+  </si>
+  <si>
+    <t>1:21.70</t>
+  </si>
+  <si>
+    <t>1:09.70</t>
+  </si>
+  <si>
+    <t>1:22.05</t>
+  </si>
+  <si>
+    <t>1:21.45</t>
+  </si>
+  <si>
+    <t>1:21.88</t>
+  </si>
+  <si>
+    <t>1:22.50</t>
+  </si>
+  <si>
+    <t>1:22.3</t>
+  </si>
+  <si>
+    <t>1:23.28</t>
+  </si>
+  <si>
+    <t>1:22.34</t>
+  </si>
+  <si>
+    <t>1:22.86</t>
+  </si>
+  <si>
+    <t>1:21.97</t>
+  </si>
+  <si>
+    <t>1:23.21</t>
+  </si>
+  <si>
+    <t>1:21.66</t>
+  </si>
+  <si>
+    <t>1:22.49</t>
+  </si>
+  <si>
+    <t>1:22.03</t>
+  </si>
+  <si>
+    <t>1:21.64</t>
+  </si>
+  <si>
+    <t>1:21.78</t>
+  </si>
+  <si>
+    <t>1:22.58</t>
+  </si>
+  <si>
+    <t>1:22.73</t>
+  </si>
+  <si>
+    <t>2024/06/15</t>
+  </si>
+  <si>
+    <t>2024/12/15</t>
+  </si>
+  <si>
+    <t>2024/12/29</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2025/02/16</t>
+  </si>
+  <si>
+    <t>董明朗</t>
+  </si>
+  <si>
+    <t>黃寶妮</t>
+  </si>
+  <si>
+    <t>蔡明紹</t>
+  </si>
+  <si>
+    <t>58.92</t>
+  </si>
+  <si>
+    <t>58.90</t>
+  </si>
+  <si>
+    <t>58.62</t>
+  </si>
+  <si>
+    <t>58.74</t>
+  </si>
+  <si>
+    <t>57.79</t>
+  </si>
+  <si>
+    <t>58.91</t>
+  </si>
+  <si>
+    <t>1:23.36</t>
+  </si>
+  <si>
+    <t>1:21.42</t>
+  </si>
+  <si>
+    <t>1:21.79</t>
+  </si>
+  <si>
+    <t>1:22.38</t>
+  </si>
+  <si>
+    <t>1:21.46</t>
+  </si>
+  <si>
+    <t>1:21.98</t>
+  </si>
+  <si>
+    <t>1:24.33</t>
+  </si>
+  <si>
+    <t>1:22.52</t>
+  </si>
+  <si>
+    <t>1:22.88</t>
+  </si>
+  <si>
+    <t>1:22.85</t>
+  </si>
+  <si>
+    <t>1:22.94</t>
+  </si>
+  <si>
+    <t>1:22.21</t>
+  </si>
+  <si>
+    <t>1:22.47</t>
+  </si>
+  <si>
+    <t>1:24.49</t>
+  </si>
+  <si>
+    <t>1:22.72</t>
+  </si>
+  <si>
+    <t>1:23.22</t>
+  </si>
+  <si>
+    <t>1:22.87</t>
+  </si>
+  <si>
+    <t>1:22.79</t>
+  </si>
+  <si>
+    <t>1:22.9</t>
+  </si>
+  <si>
+    <t>1:22.35</t>
+  </si>
+  <si>
+    <t>1:22.36</t>
+  </si>
+  <si>
+    <t>[13/10] 1400 潘明輝 (5) 67.0</t>
+  </si>
+  <si>
+    <t>[09/03] 1400 金誠剛 (11) 185.0</t>
+  </si>
+  <si>
+    <t>##[15/03] 1200 梁家俊 (8) 46.0</t>
+  </si>
+  <si>
+    <t>[19/01] 1400 何澤堯 (10) 18.0</t>
+  </si>
+  <si>
+    <t>##[02/03] 1200 楊明綸 (8) 81.0</t>
+  </si>
+  <si>
+    <t>[09/02] 1400 艾道拿 (12) 127.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1400 梁家俊 (4) 21.0</t>
+  </si>
+  <si>
+    <t>##[23/02] 1200 田泰安 (4) 10.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1400 霍宏聲 (2) 10.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1400 周俊樂 (2) 17.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1400 金誠剛 (7) 199.0</t>
+  </si>
+  <si>
+    <t>[23/03] 1400 艾兆禮 (11) 29.0</t>
+  </si>
+  <si>
+    <t>[26/01] 1400 班德禮 (1) 9.3</t>
+  </si>
+  <si>
+    <t>[15/06] 1400 潘明輝 (6) 36.0</t>
+  </si>
+  <si>
+    <t>[15/12] 1400 董明朗 (9) 41.0</t>
+  </si>
+  <si>
+    <t>[29/12] 1400 艾道拿 (11) 64.0</t>
+  </si>
+  <si>
+    <t>[23/02] 1400 黃寶妮 (12) 25.0</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 蔡明紹 (7) 8.6</t>
+  </si>
+  <si>
+    <t>[31/01] 1400 周俊樂 (9) 22.0</t>
+  </si>
+  <si>
+    <t>[16/02] 1400 艾兆禮 (7) 6.9</t>
+  </si>
+  <si>
+    <t>[15/12] 1400 田泰安 (3) 4.2</t>
+  </si>
+  <si>
+    <t>1:23.39</t>
+  </si>
+  <si>
+    <t>1:22.27</t>
+  </si>
+  <si>
+    <t>1:22.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,11 +1258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +1558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:CU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +1663,3271 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99">
+      <c r="A2" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <v>1400</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH2">
+        <v>2024101</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK2">
+        <v>1400</v>
+      </c>
+      <c r="AL2">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN2">
+        <v>67</v>
+      </c>
+      <c r="AO2">
+        <v>115</v>
+      </c>
+      <c r="AP2">
+        <v>20</v>
+      </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>6</v>
+      </c>
+      <c r="AS2">
+        <v>13.54</v>
+      </c>
+      <c r="AT2">
+        <v>35.95</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ2">
+        <v>13.82</v>
+      </c>
+      <c r="BA2">
+        <v>22.57</v>
+      </c>
+      <c r="BB2">
+        <v>22.99</v>
+      </c>
+      <c r="BC2">
+        <v>22.51</v>
+      </c>
+      <c r="BF2">
+        <v>45.5</v>
+      </c>
+      <c r="BG2">
+        <v>0.408</v>
+      </c>
+      <c r="BH2">
+        <v>45.908</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BJ2">
+        <v>2023759</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM2">
+        <v>1400</v>
+      </c>
+      <c r="BN2">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP2">
+        <v>36</v>
+      </c>
+      <c r="BQ2">
+        <v>122</v>
+      </c>
+      <c r="BR2">
+        <v>13</v>
+      </c>
+      <c r="BS2">
+        <v>10</v>
+      </c>
+      <c r="BT2">
+        <v>-2</v>
+      </c>
+      <c r="BU2">
+        <v>13.51</v>
+      </c>
+      <c r="BV2">
+        <v>34.86</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>346</v>
+      </c>
+      <c r="CB2">
+        <v>13.95</v>
+      </c>
+      <c r="CC2">
+        <v>22.35</v>
+      </c>
+      <c r="CD2">
+        <v>23.38</v>
+      </c>
+      <c r="CE2">
+        <v>24.65</v>
+      </c>
+      <c r="CH2">
+        <v>48.03</v>
+      </c>
+      <c r="CI2">
+        <v>0.159</v>
+      </c>
+      <c r="CJ2">
+        <v>48.189</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>353</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>361</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>353</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>374</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR2">
+        <v>82.3</v>
+      </c>
+      <c r="CS2">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>83.39</v>
+      </c>
+      <c r="CU2">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99">
+      <c r="A3" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>1400</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>134</v>
+      </c>
+      <c r="M3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH3">
+        <v>2024493</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK3">
+        <v>1400</v>
+      </c>
+      <c r="AL3">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN3">
+        <v>185</v>
+      </c>
+      <c r="AO3">
+        <v>120</v>
+      </c>
+      <c r="AP3">
+        <v>14</v>
+      </c>
+      <c r="AQ3">
+        <v>8</v>
+      </c>
+      <c r="AR3">
+        <v>5</v>
+      </c>
+      <c r="AS3">
+        <v>13.5</v>
+      </c>
+      <c r="AT3">
+        <v>35.1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ3">
+        <v>13.62</v>
+      </c>
+      <c r="BA3">
+        <v>21.8</v>
+      </c>
+      <c r="BB3">
+        <v>23.04</v>
+      </c>
+      <c r="BC3">
+        <v>24.52</v>
+      </c>
+      <c r="BF3">
+        <v>47.56</v>
+      </c>
+      <c r="BG3">
+        <v>0.3</v>
+      </c>
+      <c r="BH3">
+        <v>47.86</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>314</v>
+      </c>
+      <c r="CR3">
+        <v>83.28</v>
+      </c>
+      <c r="CT3">
+        <v>83.28</v>
+      </c>
+      <c r="CU3">
+        <v>83.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99">
+      <c r="A4" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4">
+        <v>1400</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>174</v>
+      </c>
+      <c r="U4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH4">
+        <v>2024508</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK4">
+        <v>1200</v>
+      </c>
+      <c r="AL4">
+        <v>8</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN4">
+        <v>46</v>
+      </c>
+      <c r="AO4">
+        <v>132</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>23.88</v>
+      </c>
+      <c r="AT4">
+        <v>46.26</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AZ4">
+        <v>24.12</v>
+      </c>
+      <c r="BA4">
+        <v>22.3</v>
+      </c>
+      <c r="BB4">
+        <v>23.1</v>
+      </c>
+      <c r="BF4">
+        <v>45.4</v>
+      </c>
+      <c r="BG4">
+        <v>0.08399999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>45.484</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>363</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>315</v>
+      </c>
+      <c r="CR4">
+        <v>82.34</v>
+      </c>
+      <c r="CT4">
+        <v>82.34</v>
+      </c>
+      <c r="CU4">
+        <v>82.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99">
+      <c r="A5" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>1400</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5">
+        <v>132</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH5">
+        <v>2024359</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK5">
+        <v>1400</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN5">
+        <v>18</v>
+      </c>
+      <c r="AO5">
+        <v>134</v>
+      </c>
+      <c r="AP5">
+        <v>-2</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>10</v>
+      </c>
+      <c r="AS5">
+        <v>13.3</v>
+      </c>
+      <c r="AT5">
+        <v>34.51</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ5">
+        <v>13.54</v>
+      </c>
+      <c r="BA5">
+        <v>21.57</v>
+      </c>
+      <c r="BB5">
+        <v>23.39</v>
+      </c>
+      <c r="BC5">
+        <v>24.21</v>
+      </c>
+      <c r="BF5">
+        <v>47.6</v>
+      </c>
+      <c r="BG5">
+        <v>0.15</v>
+      </c>
+      <c r="BH5">
+        <v>47.75</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ5">
+        <v>2024266</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM5">
+        <v>1400</v>
+      </c>
+      <c r="BN5">
+        <v>9</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>331</v>
+      </c>
+      <c r="BP5">
+        <v>41</v>
+      </c>
+      <c r="BQ5">
+        <v>116</v>
+      </c>
+      <c r="BR5">
+        <v>16</v>
+      </c>
+      <c r="BS5">
+        <v>13</v>
+      </c>
+      <c r="BT5">
+        <v>-2</v>
+      </c>
+      <c r="BU5">
+        <v>13.54</v>
+      </c>
+      <c r="BV5">
+        <v>35.52</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>341</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>347</v>
+      </c>
+      <c r="CB5">
+        <v>13.62</v>
+      </c>
+      <c r="CC5">
+        <v>21.98</v>
+      </c>
+      <c r="CD5">
+        <v>23.46</v>
+      </c>
+      <c r="CE5">
+        <v>23.46</v>
+      </c>
+      <c r="CH5">
+        <v>46.92</v>
+      </c>
+      <c r="CI5">
+        <v>0.204</v>
+      </c>
+      <c r="CJ5">
+        <v>47.124</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>354</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>316</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>364</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>354</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>375</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>357</v>
+      </c>
+      <c r="CR5">
+        <v>82.86</v>
+      </c>
+      <c r="CS5">
+        <v>82.72</v>
+      </c>
+      <c r="CT5">
+        <v>82.78999999999999</v>
+      </c>
+      <c r="CU5">
+        <v>82.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99">
+      <c r="A6" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6">
+        <v>130</v>
+      </c>
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH6">
+        <v>2024469</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK6">
+        <v>1200</v>
+      </c>
+      <c r="AL6">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN6">
+        <v>81</v>
+      </c>
+      <c r="AO6">
+        <v>135</v>
+      </c>
+      <c r="AP6">
+        <v>-5</v>
+      </c>
+      <c r="AQ6">
+        <v>14</v>
+      </c>
+      <c r="AR6">
+        <v>-9</v>
+      </c>
+      <c r="AS6">
+        <v>24.12</v>
+      </c>
+      <c r="AT6">
+        <v>46.75</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ6">
+        <v>25.36</v>
+      </c>
+      <c r="BA6">
+        <v>22.27</v>
+      </c>
+      <c r="BB6">
+        <v>21.9</v>
+      </c>
+      <c r="BF6">
+        <v>44.17</v>
+      </c>
+      <c r="BG6">
+        <v>-0.237</v>
+      </c>
+      <c r="BH6">
+        <v>43.933</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>317</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>317</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>365</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>317</v>
+      </c>
+      <c r="CR6">
+        <v>81.97</v>
+      </c>
+      <c r="CT6">
+        <v>81.97</v>
+      </c>
+      <c r="CU6">
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99">
+      <c r="A7" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7">
+        <v>129</v>
+      </c>
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U7" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH7">
+        <v>2024408</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK7">
+        <v>1400</v>
+      </c>
+      <c r="AL7">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN7">
+        <v>127</v>
+      </c>
+      <c r="AO7">
+        <v>134</v>
+      </c>
+      <c r="AP7">
+        <v>-5</v>
+      </c>
+      <c r="AQ7">
+        <v>11</v>
+      </c>
+      <c r="AR7">
+        <v>-7</v>
+      </c>
+      <c r="AS7">
+        <v>13.85</v>
+      </c>
+      <c r="AT7">
+        <v>36.03</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AZ7">
+        <v>14.37</v>
+      </c>
+      <c r="BA7">
+        <v>22.34</v>
+      </c>
+      <c r="BB7">
+        <v>23.52</v>
+      </c>
+      <c r="BC7">
+        <v>23.18</v>
+      </c>
+      <c r="BF7">
+        <v>46.7</v>
+      </c>
+      <c r="BG7">
+        <v>-0.201</v>
+      </c>
+      <c r="BH7">
+        <v>46.499</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ7">
+        <v>2024300</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>328</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM7">
+        <v>1400</v>
+      </c>
+      <c r="BN7">
+        <v>11</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP7">
+        <v>64</v>
+      </c>
+      <c r="BQ7">
+        <v>135</v>
+      </c>
+      <c r="BR7">
+        <v>-6</v>
+      </c>
+      <c r="BS7">
+        <v>7</v>
+      </c>
+      <c r="BT7">
+        <v>-3</v>
+      </c>
+      <c r="BU7">
+        <v>13.58</v>
+      </c>
+      <c r="BV7">
+        <v>34.87</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>336</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>340</v>
+      </c>
+      <c r="CB7">
+        <v>14.3</v>
+      </c>
+      <c r="CC7">
+        <v>21.61</v>
+      </c>
+      <c r="CD7">
+        <v>23.59</v>
+      </c>
+      <c r="CE7">
+        <v>23.86</v>
+      </c>
+      <c r="CH7">
+        <v>47.45</v>
+      </c>
+      <c r="CI7">
+        <v>-0.144</v>
+      </c>
+      <c r="CJ7">
+        <v>47.306</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>355</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>318</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>366</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>355</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>376</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>355</v>
+      </c>
+      <c r="CR7">
+        <v>83.21000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>83.22</v>
+      </c>
+      <c r="CT7">
+        <v>83.22</v>
+      </c>
+      <c r="CU7">
+        <v>83.21000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99">
+      <c r="A8" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>1400</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8">
+        <v>129</v>
+      </c>
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH8">
+        <v>2024526</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK8">
+        <v>1400</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN8">
+        <v>21</v>
+      </c>
+      <c r="AO8">
+        <v>129</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>-2</v>
+      </c>
+      <c r="AS8">
+        <v>13.39</v>
+      </c>
+      <c r="AT8">
+        <v>34.78</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AZ8">
+        <v>13.91</v>
+      </c>
+      <c r="BA8">
+        <v>21.83</v>
+      </c>
+      <c r="BB8">
+        <v>22.85</v>
+      </c>
+      <c r="BC8">
+        <v>23.11</v>
+      </c>
+      <c r="BF8">
+        <v>45.96</v>
+      </c>
+      <c r="BG8">
+        <v>-0.036</v>
+      </c>
+      <c r="BH8">
+        <v>45.924</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ8">
+        <v>2024447</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM8">
+        <v>1400</v>
+      </c>
+      <c r="BN8">
+        <v>12</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP8">
+        <v>25</v>
+      </c>
+      <c r="BQ8">
+        <v>121</v>
+      </c>
+      <c r="BR8">
+        <v>8</v>
+      </c>
+      <c r="BS8">
+        <v>8</v>
+      </c>
+      <c r="BT8">
+        <v>-7</v>
+      </c>
+      <c r="BU8">
+        <v>13.74</v>
+      </c>
+      <c r="BV8">
+        <v>35.11</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>348</v>
+      </c>
+      <c r="CB8">
+        <v>13.98</v>
+      </c>
+      <c r="CC8">
+        <v>21.73</v>
+      </c>
+      <c r="CD8">
+        <v>23.25</v>
+      </c>
+      <c r="CE8">
+        <v>23.92</v>
+      </c>
+      <c r="CH8">
+        <v>47.17</v>
+      </c>
+      <c r="CI8">
+        <v>-0.006000000000000005</v>
+      </c>
+      <c r="CJ8">
+        <v>47.164</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>356</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>123</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>319</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>367</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>356</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>377</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CR8">
+        <v>81.66</v>
+      </c>
+      <c r="CS8">
+        <v>82.87</v>
+      </c>
+      <c r="CT8">
+        <v>82.27</v>
+      </c>
+      <c r="CU8">
+        <v>81.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99">
+      <c r="A9" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9">
+        <v>1400</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U9" t="s">
+        <v>111</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH9">
+        <v>2024450</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK9">
+        <v>1200</v>
+      </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN9">
+        <v>10</v>
+      </c>
+      <c r="AO9">
+        <v>127</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>11</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>23.97</v>
+      </c>
+      <c r="AT9">
+        <v>46.75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ9">
+        <v>24.21</v>
+      </c>
+      <c r="BA9">
+        <v>22.82</v>
+      </c>
+      <c r="BB9">
+        <v>22.67</v>
+      </c>
+      <c r="BF9">
+        <v>45.49</v>
+      </c>
+      <c r="BG9">
+        <v>0.033</v>
+      </c>
+      <c r="BH9">
+        <v>45.523</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>320</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>368</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>320</v>
+      </c>
+      <c r="CR9">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="CT9">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="CU9">
+        <v>82.48999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99">
+      <c r="A10" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>1400</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" t="s">
+        <v>111</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99">
+      <c r="A11" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11">
+        <v>1400</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11">
+        <v>127</v>
+      </c>
+      <c r="M11" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>174</v>
+      </c>
+      <c r="U11" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH11">
+        <v>2024447</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK11">
+        <v>1400</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>125</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
+      <c r="AR11">
+        <v>-3</v>
+      </c>
+      <c r="AS11">
+        <v>13.74</v>
+      </c>
+      <c r="AT11">
+        <v>35.11</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ11">
+        <v>14.22</v>
+      </c>
+      <c r="BA11">
+        <v>21.61</v>
+      </c>
+      <c r="BB11">
+        <v>23.21</v>
+      </c>
+      <c r="BC11">
+        <v>23.01</v>
+      </c>
+      <c r="BF11">
+        <v>46.22</v>
+      </c>
+      <c r="BG11">
+        <v>-0.02399999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>46.196</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ11">
+        <v>2024391</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM11">
+        <v>1400</v>
+      </c>
+      <c r="BN11">
+        <v>7</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>333</v>
+      </c>
+      <c r="BP11">
+        <v>8.6</v>
+      </c>
+      <c r="BQ11">
+        <v>126</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>7</v>
+      </c>
+      <c r="BT11">
+        <v>-4</v>
+      </c>
+      <c r="BU11">
+        <v>13.58</v>
+      </c>
+      <c r="BV11">
+        <v>35.14</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>337</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>349</v>
+      </c>
+      <c r="CB11">
+        <v>14.42</v>
+      </c>
+      <c r="CC11">
+        <v>21.88</v>
+      </c>
+      <c r="CD11">
+        <v>23.6</v>
+      </c>
+      <c r="CE11">
+        <v>22.95</v>
+      </c>
+      <c r="CH11">
+        <v>46.55</v>
+      </c>
+      <c r="CI11">
+        <v>-0.057</v>
+      </c>
+      <c r="CJ11">
+        <v>46.49299999999999</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>357</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>369</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>357</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>378</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>296</v>
+      </c>
+      <c r="CR11">
+        <v>82.03</v>
+      </c>
+      <c r="CS11">
+        <v>82.78999999999999</v>
+      </c>
+      <c r="CT11">
+        <v>82.41</v>
+      </c>
+      <c r="CU11">
+        <v>82.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99">
+      <c r="A12" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12">
+        <v>1400</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12">
+        <v>124</v>
+      </c>
+      <c r="M12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>176</v>
+      </c>
+      <c r="U12" t="s">
+        <v>111</v>
+      </c>
+      <c r="V12" t="s">
+        <v>183</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH12">
+        <v>2024524</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK12">
+        <v>1400</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN12">
+        <v>17</v>
+      </c>
+      <c r="AO12">
+        <v>121</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>8</v>
+      </c>
+      <c r="AS12">
+        <v>13.58</v>
+      </c>
+      <c r="AT12">
+        <v>35.04</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ12">
+        <v>13.66</v>
+      </c>
+      <c r="BA12">
+        <v>21.7</v>
+      </c>
+      <c r="BB12">
+        <v>23.12</v>
+      </c>
+      <c r="BC12">
+        <v>22.97</v>
+      </c>
+      <c r="BF12">
+        <v>46.09</v>
+      </c>
+      <c r="BG12">
+        <v>0.189</v>
+      </c>
+      <c r="BH12">
+        <v>46.279</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>322</v>
+      </c>
+      <c r="BJ12">
+        <v>2024391</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM12">
+        <v>1400</v>
+      </c>
+      <c r="BN12">
+        <v>9</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>279</v>
+      </c>
+      <c r="BP12">
+        <v>22</v>
+      </c>
+      <c r="BQ12">
+        <v>123</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>12</v>
+      </c>
+      <c r="BT12">
+        <v>-3</v>
+      </c>
+      <c r="BU12">
+        <v>13.58</v>
+      </c>
+      <c r="BV12">
+        <v>35.14</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>337</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>350</v>
+      </c>
+      <c r="CB12">
+        <v>14.46</v>
+      </c>
+      <c r="CC12">
+        <v>21.8</v>
+      </c>
+      <c r="CD12">
+        <v>23.52</v>
+      </c>
+      <c r="CE12">
+        <v>23.16</v>
+      </c>
+      <c r="CH12">
+        <v>46.68</v>
+      </c>
+      <c r="CI12">
+        <v>-0.03899999999999999</v>
+      </c>
+      <c r="CJ12">
+        <v>46.641</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>358</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>322</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>358</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>383</v>
+      </c>
+      <c r="CR12">
+        <v>81.64</v>
+      </c>
+      <c r="CS12">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="CT12">
+        <v>82.27</v>
+      </c>
+      <c r="CU12">
+        <v>81.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99">
+      <c r="A13" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>1400</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>170</v>
+      </c>
+      <c r="R13">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH13">
+        <v>2024524</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK13">
+        <v>1400</v>
+      </c>
+      <c r="AL13">
+        <v>7</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN13">
+        <v>199</v>
+      </c>
+      <c r="AO13">
+        <v>120</v>
+      </c>
+      <c r="AP13">
+        <v>-2</v>
+      </c>
+      <c r="AQ13">
+        <v>11</v>
+      </c>
+      <c r="AR13">
+        <v>-4</v>
+      </c>
+      <c r="AS13">
+        <v>13.58</v>
+      </c>
+      <c r="AT13">
+        <v>35.04</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ13">
+        <v>14.14</v>
+      </c>
+      <c r="BA13">
+        <v>21.46</v>
+      </c>
+      <c r="BB13">
+        <v>23.12</v>
+      </c>
+      <c r="BC13">
+        <v>23.16</v>
+      </c>
+      <c r="BF13">
+        <v>46.28</v>
+      </c>
+      <c r="BG13">
+        <v>-0.102</v>
+      </c>
+      <c r="BH13">
+        <v>46.178</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>323</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>323</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>371</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>323</v>
+      </c>
+      <c r="CR13">
+        <v>81.78</v>
+      </c>
+      <c r="CT13">
+        <v>81.78</v>
+      </c>
+      <c r="CU13">
+        <v>81.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99">
+      <c r="A14" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14">
+        <v>1400</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14">
+        <v>42</v>
+      </c>
+      <c r="S14" t="s">
+        <v>173</v>
+      </c>
+      <c r="U14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH14">
+        <v>2024526</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK14">
+        <v>1400</v>
+      </c>
+      <c r="AL14">
+        <v>11</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN14">
+        <v>29</v>
+      </c>
+      <c r="AO14">
+        <v>119</v>
+      </c>
+      <c r="AP14">
+        <v>-2</v>
+      </c>
+      <c r="AQ14">
+        <v>8</v>
+      </c>
+      <c r="AR14">
+        <v>6</v>
+      </c>
+      <c r="AS14">
+        <v>13.39</v>
+      </c>
+      <c r="AT14">
+        <v>34.78</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ14">
+        <v>13.59</v>
+      </c>
+      <c r="BA14">
+        <v>21.63</v>
+      </c>
+      <c r="BB14">
+        <v>23.09</v>
+      </c>
+      <c r="BC14">
+        <v>24.19</v>
+      </c>
+      <c r="BF14">
+        <v>47.28</v>
+      </c>
+      <c r="BG14">
+        <v>0.07799999999999999</v>
+      </c>
+      <c r="BH14">
+        <v>47.358</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ14">
+        <v>2024430</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM14">
+        <v>1400</v>
+      </c>
+      <c r="BN14">
+        <v>7</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP14">
+        <v>6.9</v>
+      </c>
+      <c r="BQ14">
+        <v>120</v>
+      </c>
+      <c r="BR14">
+        <v>-3</v>
+      </c>
+      <c r="BS14">
+        <v>4</v>
+      </c>
+      <c r="BT14">
+        <v>10</v>
+      </c>
+      <c r="BU14">
+        <v>13.4</v>
+      </c>
+      <c r="BV14">
+        <v>34.81</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>338</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>344</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>351</v>
+      </c>
+      <c r="CB14">
+        <v>13.6</v>
+      </c>
+      <c r="CC14">
+        <v>21.77</v>
+      </c>
+      <c r="CD14">
+        <v>22.78</v>
+      </c>
+      <c r="CE14">
+        <v>24.06</v>
+      </c>
+      <c r="CH14">
+        <v>46.84</v>
+      </c>
+      <c r="CI14">
+        <v>0.135</v>
+      </c>
+      <c r="CJ14">
+        <v>46.975</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>324</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>372</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>359</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>352</v>
+      </c>
+      <c r="CR14">
+        <v>82.58</v>
+      </c>
+      <c r="CS14">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="CT14">
+        <v>82.47</v>
+      </c>
+      <c r="CU14">
+        <v>82.34999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99">
+      <c r="A15" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>1400</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15">
+        <v>117</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R15">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>174</v>
+      </c>
+      <c r="U15" t="s">
+        <v>111</v>
+      </c>
+      <c r="V15" t="s">
+        <v>186</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH15">
+        <v>2024377</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK15">
+        <v>1400</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN15">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AO15">
+        <v>131</v>
+      </c>
+      <c r="AP15">
+        <v>-14</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>9</v>
+      </c>
+      <c r="AS15">
+        <v>13.4</v>
+      </c>
+      <c r="AT15">
+        <v>34.94</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ15">
+        <v>13.76</v>
+      </c>
+      <c r="BA15">
+        <v>21.82</v>
+      </c>
+      <c r="BB15">
+        <v>23.3</v>
+      </c>
+      <c r="BC15">
+        <v>23.9</v>
+      </c>
+      <c r="BF15">
+        <v>47.2</v>
+      </c>
+      <c r="BG15">
+        <v>-0.04800000000000001</v>
+      </c>
+      <c r="BH15">
+        <v>47.152</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>325</v>
+      </c>
+      <c r="BJ15">
+        <v>2024259</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>270</v>
+      </c>
+      <c r="BM15">
+        <v>1400</v>
+      </c>
+      <c r="BN15">
+        <v>3</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP15">
+        <v>4.2</v>
+      </c>
+      <c r="BQ15">
+        <v>133</v>
+      </c>
+      <c r="BR15">
+        <v>-16</v>
+      </c>
+      <c r="BS15">
+        <v>3</v>
+      </c>
+      <c r="BT15">
+        <v>7</v>
+      </c>
+      <c r="BU15">
+        <v>13.29</v>
+      </c>
+      <c r="BV15">
+        <v>35.84</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>339</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>345</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>352</v>
+      </c>
+      <c r="CB15">
+        <v>13.89</v>
+      </c>
+      <c r="CC15">
+        <v>22.63</v>
+      </c>
+      <c r="CD15">
+        <v>23.19</v>
+      </c>
+      <c r="CE15">
+        <v>22.76</v>
+      </c>
+      <c r="CH15">
+        <v>45.95</v>
+      </c>
+      <c r="CI15">
+        <v>-0.114</v>
+      </c>
+      <c r="CJ15">
+        <v>45.83600000000001</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>325</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>373</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>360</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>384</v>
+      </c>
+      <c r="CR15">
+        <v>82.73</v>
+      </c>
+      <c r="CS15">
+        <v>82.36</v>
+      </c>
+      <c r="CT15">
+        <v>82.55</v>
+      </c>
+      <c r="CU15">
+        <v>82.36</v>
       </c>
     </row>
   </sheetData>
